--- a/biology/Zoologie/Eryopidae/Eryopidae.xlsx
+++ b/biology/Zoologie/Eryopidae/Eryopidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eryopidés
 Les Eryopidae (Eryopidés en français) sont une famille de temnospondyles amphibies de taille moyenne à grande, connus d'Amérique du Nord et d'Europe. 
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont définis comme tous les éryopoïdes avec des vacuités interptérygoïdiennes (espaces dans l'os interptérygoïdien) arrondies à l'avant ; et grandes narines externes (Laurin et Steyer 2000). Tous les genres précédemment inclus dans les Eryopidae (Carroll 1988) ne sont pas retenus dans les révisions cladistiques. 
 </t>
@@ -543,9 +557,11 @@
           <t>Cladogramme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phylogénie des Eryopidae établie par Schoch en 2021 est la suivante[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phylogénie des Eryopidae établie par Schoch en 2021 est la suivante :
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (1er mai 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (1er mai 2023) :
 †Actinodon Gaudry, 1867
 †Anisodexis Cope, 1882
 †Clamorosaurus Gubin, 1983
